--- a/StatisticsTests/ExcelTesting/ExcelData/Uniform.xlsx
+++ b/StatisticsTests/ExcelTesting/ExcelData/Uniform.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <x:si>
     <x:r>
       <x:rPr>
@@ -544,12 +544,6 @@
   </x:si>
   <x:si>
     <x:t>Sample Size</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-2147483648</x:t>
   </x:si>
   <x:si>
     <x:t>2147483647</x:t>
@@ -1967,7 +1961,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -2020,7 +2014,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -2072,7 +2066,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -2137,7 +2131,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -2215,7 +2209,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A1" s="4" t="s">
-        <x:v>71</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
         <x:v>1</x:v>
@@ -2227,7 +2221,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -2248,18 +2242,18 @@
     </x:row>
     <x:row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A6" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="K6" s="11" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A7" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K7" s="12" t="s">
-        <x:v>76</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:19" s="0" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2267,13 +2261,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C8" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
         <x:v>12</x:v>
@@ -2285,7 +2279,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I8" s="6" t="s">
         <x:v>15</x:v>
@@ -2318,7 +2312,7 @@
       </x:c>
       <x:c r="J9" s="7" t="s"/>
       <x:c r="K9" s="33" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="L9" s="34" t="s"/>
       <x:c r="M9" s="34" t="s"/>
@@ -2330,33 +2324,33 @@
     </x:row>
     <x:row r="10" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="K10" s="35" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="L10" s="36" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="L10" s="36" t="s">
+      <x:c r="M10" s="35" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="N10" s="36" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="O10" s="35" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="P10" s="36" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="M10" s="35" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="N10" s="36" t="s">
+      <x:c r="Q10" s="35" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="R10" s="36" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="O10" s="35" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P10" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="Q10" s="35" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="R10" s="36" t="s">
-        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:19" s="0" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A11" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
@@ -2398,13 +2392,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B12" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C12" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
         <x:v>12</x:v>
@@ -2416,7 +2410,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H12" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I12" s="6" t="s">
         <x:v>15</x:v>
@@ -2464,7 +2458,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F13" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H13" s="7" t="s"/>
       <x:c r="I13" s="3">
@@ -2524,7 +2518,7 @@
     </x:row>
     <x:row r="15" spans="1:19" s="0" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A15" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="K15" s="40">
         <x:f>D25</x:f>
@@ -2556,13 +2550,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C16" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
         <x:v>12</x:v>
@@ -2574,7 +2568,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H16" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I16" s="6" t="s">
         <x:v>15</x:v>
@@ -2598,7 +2592,7 @@
         <x:v>0.03333333333333333</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G17" s="3" t="s"/>
       <x:c r="H17" s="7" t="s"/>
@@ -2610,7 +2604,7 @@
     <x:row r="18" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="19" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A19" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2618,13 +2612,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B20" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C20" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D20" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E20" s="6" t="s">
         <x:v>12</x:v>
@@ -2636,7 +2630,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H20" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I20" s="6" t="s">
         <x:v>15</x:v>
@@ -2660,7 +2654,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F21" s="3" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H21" s="7" t="s"/>
       <x:c r="I21" s="3">
@@ -2671,7 +2665,7 @@
     <x:row r="22" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="23" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A23" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2679,13 +2673,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B24" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C24" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D24" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E24" s="6" t="s">
         <x:v>12</x:v>
@@ -2697,7 +2691,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H24" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I24" s="6" t="s">
         <x:v>15</x:v>
@@ -2731,12 +2725,12 @@
     </x:row>
     <x:row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A27" s="5" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A28" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2744,13 +2738,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B29" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C29" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D29" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E29" s="6" t="s">
         <x:v>12</x:v>
@@ -2762,7 +2756,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H29" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I29" s="6" t="s">
         <x:v>15</x:v>
@@ -2797,7 +2791,7 @@
     <x:row r="31" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="32" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A32" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2805,13 +2799,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B33" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C33" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D33" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E33" s="6" t="s">
         <x:v>12</x:v>
@@ -2823,7 +2817,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H33" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I33" s="6" t="s">
         <x:v>15</x:v>
@@ -2847,7 +2841,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F34" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H34" s="7" t="s"/>
       <x:c r="I34" s="3">
@@ -2858,7 +2852,7 @@
     <x:row r="35" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="36" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A36" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2866,13 +2860,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B37" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C37" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D37" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E37" s="6" t="s">
         <x:v>12</x:v>
@@ -2884,7 +2878,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H37" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I37" s="6" t="s">
         <x:v>15</x:v>
@@ -2908,7 +2902,7 @@
         <x:v>0.02857142857142857</x:v>
       </x:c>
       <x:c r="F38" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H38" s="7" t="s"/>
       <x:c r="I38" s="3">
@@ -2919,7 +2913,7 @@
     <x:row r="39" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="40" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A40" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2927,13 +2921,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B41" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C41" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D41" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E41" s="6" t="s">
         <x:v>12</x:v>
@@ -2945,7 +2939,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H41" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I41" s="6" t="s">
         <x:v>15</x:v>
@@ -2969,7 +2963,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F42" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H42" s="7" t="s"/>
       <x:c r="I42" s="3">
@@ -2980,7 +2974,7 @@
     <x:row r="43" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="44" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A44" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2988,13 +2982,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B45" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C45" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D45" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E45" s="6" t="s">
         <x:v>12</x:v>
@@ -3006,7 +3000,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H45" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I45" s="6" t="s">
         <x:v>15</x:v>
@@ -3040,12 +3034,12 @@
     </x:row>
     <x:row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A48" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A49" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3053,13 +3047,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B50" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C50" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D50" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E50" s="6" t="s">
         <x:v>12</x:v>
@@ -3071,7 +3065,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H50" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I50" s="6" t="s">
         <x:v>15</x:v>
@@ -3106,7 +3100,7 @@
     <x:row r="52" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="53" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A53" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3114,13 +3108,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B54" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C54" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D54" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E54" s="6" t="s">
         <x:v>12</x:v>
@@ -3132,7 +3126,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H54" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I54" s="6" t="s">
         <x:v>15</x:v>
@@ -3156,7 +3150,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F55" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H55" s="7" t="s"/>
       <x:c r="I55" s="3">
@@ -3167,7 +3161,7 @@
     <x:row r="56" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="57" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A57" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3175,13 +3169,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B58" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C58" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D58" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E58" s="6" t="s">
         <x:v>12</x:v>
@@ -3193,7 +3187,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H58" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I58" s="6" t="s">
         <x:v>15</x:v>
@@ -3217,7 +3211,7 @@
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="F59" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H59" s="7" t="s"/>
       <x:c r="I59" s="3">
@@ -3228,7 +3222,7 @@
     <x:row r="60" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="61" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A61" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3236,13 +3230,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B62" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C62" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D62" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E62" s="6" t="s">
         <x:v>12</x:v>
@@ -3254,7 +3248,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H62" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I62" s="6" t="s">
         <x:v>15</x:v>
@@ -3278,7 +3272,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F63" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H63" s="7" t="s"/>
       <x:c r="I63" s="3">
@@ -3289,7 +3283,7 @@
     <x:row r="64" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="65" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A65" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3297,13 +3291,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B66" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C66" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D66" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E66" s="6" t="s">
         <x:v>12</x:v>
@@ -3315,7 +3309,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I66" s="6" t="s">
         <x:v>15</x:v>
@@ -3349,12 +3343,12 @@
     </x:row>
     <x:row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A69" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A70" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3362,13 +3356,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B71" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C71" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D71" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E71" s="6" t="s">
         <x:v>12</x:v>
@@ -3380,7 +3374,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H71" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I71" s="6" t="s">
         <x:v>15</x:v>
@@ -3415,7 +3409,7 @@
     <x:row r="73" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="74" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A74" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3423,13 +3417,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B75" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C75" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D75" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E75" s="6" t="s">
         <x:v>12</x:v>
@@ -3441,7 +3435,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H75" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I75" s="6" t="s">
         <x:v>15</x:v>
@@ -3465,7 +3459,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F76" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H76" s="7" t="s"/>
       <x:c r="I76" s="3">
@@ -3476,7 +3470,7 @@
     <x:row r="77" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="78" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A78" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3484,13 +3478,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B79" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C79" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D79" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E79" s="6" t="s">
         <x:v>12</x:v>
@@ -3502,7 +3496,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H79" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I79" s="6" t="s">
         <x:v>15</x:v>
@@ -3526,7 +3520,7 @@
         <x:v>0.01</x:v>
       </x:c>
       <x:c r="F80" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H80" s="7" t="s"/>
       <x:c r="I80" s="3">
@@ -3537,7 +3531,7 @@
     <x:row r="81" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="82" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A82" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3545,13 +3539,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B83" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C83" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D83" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E83" s="6" t="s">
         <x:v>12</x:v>
@@ -3563,7 +3557,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H83" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I83" s="6" t="s">
         <x:v>15</x:v>
@@ -3587,7 +3581,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F84" s="3" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H84" s="7" t="s"/>
       <x:c r="I84" s="3">
@@ -3598,7 +3592,7 @@
     <x:row r="85" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="86" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A86" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3606,13 +3600,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B87" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C87" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D87" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E87" s="6" t="s">
         <x:v>12</x:v>
@@ -3624,7 +3618,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H87" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I87" s="6" t="s">
         <x:v>15</x:v>
@@ -3711,7 +3705,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A1" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
         <x:v>1</x:v>
@@ -3724,7 +3718,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s"/>
     </x:row>
@@ -3748,18 +3742,18 @@
     </x:row>
     <x:row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A6" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="K6" s="11" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A7" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K7" s="9" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:19" s="0" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3767,13 +3761,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C8" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
         <x:v>12</x:v>
@@ -3785,7 +3779,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I8" s="6" t="s">
         <x:v>15</x:v>
@@ -3816,7 +3810,7 @@
         <x:f>IF( D9 &lt; B9, 0, IF(D9 &gt; C9, 1, (D9 - B9) / (C9 - B9)) )</x:f>
       </x:c>
       <x:c r="K9" s="33" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="L9" s="34" t="s"/>
       <x:c r="M9" s="34" t="s"/>
@@ -3828,33 +3822,33 @@
     </x:row>
     <x:row r="10" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="K10" s="35" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="L10" s="36" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="L10" s="36" t="s">
+      <x:c r="M10" s="35" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="N10" s="36" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="O10" s="35" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="P10" s="36" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="M10" s="35" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="N10" s="36" t="s">
+      <x:c r="Q10" s="35" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="R10" s="36" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="O10" s="35" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P10" s="36" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="Q10" s="35" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="R10" s="36" t="s">
-        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A11" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="K11" s="37">
         <x:f>D9</x:f>
@@ -3886,13 +3880,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B12" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C12" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
         <x:v>12</x:v>
@@ -3904,7 +3898,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H12" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I12" s="6" t="s">
         <x:v>15</x:v>
@@ -4010,7 +4004,7 @@
     </x:row>
     <x:row r="15" spans="1:19" s="0" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A15" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="K15" s="40">
         <x:f>D25</x:f>
@@ -4042,13 +4036,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C16" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
         <x:v>12</x:v>
@@ -4060,7 +4054,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H16" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I16" s="6" t="s">
         <x:v>15</x:v>
@@ -4083,7 +4077,7 @@
         <x:v>0.5333333333333333</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G17" s="3" t="s"/>
       <x:c r="H17" s="7" t="s"/>
@@ -4094,7 +4088,7 @@
     <x:row r="18" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="19" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A19" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4102,13 +4096,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B20" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C20" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D20" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E20" s="6" t="s">
         <x:v>12</x:v>
@@ -4120,7 +4114,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H20" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I20" s="6" t="s">
         <x:v>15</x:v>
@@ -4153,7 +4147,7 @@
     <x:row r="22" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="23" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A23" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4161,13 +4155,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B24" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C24" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D24" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E24" s="6" t="s">
         <x:v>12</x:v>
@@ -4179,7 +4173,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H24" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I24" s="6" t="s">
         <x:v>15</x:v>
@@ -4211,12 +4205,12 @@
     </x:row>
     <x:row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A27" s="5" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A28" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4224,13 +4218,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B29" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C29" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D29" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E29" s="6" t="s">
         <x:v>12</x:v>
@@ -4242,7 +4236,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H29" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I29" s="6" t="s">
         <x:v>15</x:v>
@@ -4275,7 +4269,7 @@
     <x:row r="31" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="32" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A32" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4283,13 +4277,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B33" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C33" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D33" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E33" s="6" t="s">
         <x:v>12</x:v>
@@ -4301,7 +4295,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H33" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I33" s="6" t="s">
         <x:v>15</x:v>
@@ -4334,7 +4328,7 @@
     <x:row r="35" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="36" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A36" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4342,13 +4336,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B37" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C37" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D37" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E37" s="6" t="s">
         <x:v>12</x:v>
@@ -4360,7 +4354,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H37" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I37" s="6" t="s">
         <x:v>15</x:v>
@@ -4383,7 +4377,7 @@
         <x:v>0.8571428571428571</x:v>
       </x:c>
       <x:c r="F38" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H38" s="7" t="s"/>
       <x:c r="I38" s="3">
@@ -4393,7 +4387,7 @@
     <x:row r="39" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="40" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A40" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4401,13 +4395,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B41" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C41" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D41" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E41" s="6" t="s">
         <x:v>12</x:v>
@@ -4419,7 +4413,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H41" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I41" s="6" t="s">
         <x:v>15</x:v>
@@ -4452,7 +4446,7 @@
     <x:row r="43" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="44" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A44" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4460,13 +4454,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B45" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C45" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D45" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E45" s="6" t="s">
         <x:v>12</x:v>
@@ -4478,7 +4472,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H45" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I45" s="6" t="s">
         <x:v>15</x:v>
@@ -4510,12 +4504,12 @@
     </x:row>
     <x:row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A48" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A49" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4523,13 +4517,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B50" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C50" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D50" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E50" s="6" t="s">
         <x:v>12</x:v>
@@ -4541,7 +4535,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H50" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I50" s="6" t="s">
         <x:v>15</x:v>
@@ -4574,7 +4568,7 @@
     <x:row r="52" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="53" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A53" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4582,13 +4576,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B54" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C54" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D54" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E54" s="6" t="s">
         <x:v>12</x:v>
@@ -4600,7 +4594,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H54" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I54" s="6" t="s">
         <x:v>15</x:v>
@@ -4633,7 +4627,7 @@
     <x:row r="56" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="57" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A57" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4641,13 +4635,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B58" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C58" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D58" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E58" s="6" t="s">
         <x:v>12</x:v>
@@ -4659,7 +4653,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H58" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I58" s="6" t="s">
         <x:v>15</x:v>
@@ -4682,7 +4676,7 @@
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="F59" s="3" t="s">
-        <x:v>100</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H59" s="7" t="s"/>
       <x:c r="I59" s="3">
@@ -4692,7 +4686,7 @@
     <x:row r="60" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="61" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A61" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4700,13 +4694,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B62" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C62" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D62" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E62" s="6" t="s">
         <x:v>12</x:v>
@@ -4718,7 +4712,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I62" s="6" t="s">
         <x:v>15</x:v>
@@ -4751,7 +4745,7 @@
     <x:row r="64" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="65" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A65" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4759,13 +4753,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B66" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C66" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D66" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E66" s="6" t="s">
         <x:v>12</x:v>
@@ -4777,7 +4771,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I66" s="6" t="s">
         <x:v>15</x:v>
@@ -4809,12 +4803,12 @@
     </x:row>
     <x:row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A69" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A70" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4822,13 +4816,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B71" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C71" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D71" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E71" s="6" t="s">
         <x:v>12</x:v>
@@ -4840,7 +4834,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H71" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I71" s="6" t="s">
         <x:v>15</x:v>
@@ -4873,7 +4867,7 @@
     <x:row r="73" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="74" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A74" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4881,13 +4875,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B75" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C75" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D75" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E75" s="6" t="s">
         <x:v>12</x:v>
@@ -4899,7 +4893,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H75" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I75" s="6" t="s">
         <x:v>15</x:v>
@@ -4932,7 +4926,7 @@
     <x:row r="77" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="78" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A78" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4940,13 +4934,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B79" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C79" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D79" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E79" s="6" t="s">
         <x:v>12</x:v>
@@ -4958,7 +4952,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H79" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I79" s="6" t="s">
         <x:v>15</x:v>
@@ -4981,7 +4975,7 @@
         <x:v>0.33</x:v>
       </x:c>
       <x:c r="F80" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H80" s="7" t="s"/>
       <x:c r="I80" s="3">
@@ -4991,7 +4985,7 @@
     <x:row r="81" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="82" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A82" s="9" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4999,13 +4993,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B83" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C83" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D83" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E83" s="6" t="s">
         <x:v>12</x:v>
@@ -5017,7 +5011,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H83" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I83" s="6" t="s">
         <x:v>15</x:v>
@@ -5050,7 +5044,7 @@
     <x:row r="85" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="86" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A86" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5058,13 +5052,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B87" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C87" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D87" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E87" s="6" t="s">
         <x:v>12</x:v>
@@ -5076,7 +5070,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H87" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I87" s="6" t="s">
         <x:v>15</x:v>
@@ -5167,7 +5161,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <x:c r="A1" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
         <x:v>1</x:v>
@@ -5179,7 +5173,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>103</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s"/>
     </x:row>
@@ -5203,19 +5197,19 @@
     </x:row>
     <x:row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <x:c r="A6" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="K6" s="11" t="s">
-        <x:v>104</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A7" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="J7" s="6" t="s"/>
       <x:c r="K7" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5223,13 +5217,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C8" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
         <x:v>12</x:v>
@@ -5237,18 +5231,18 @@
       <x:c r="F8" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G8" s="31" t="s">
-        <x:v>32</x:v>
+      <x:c r="G8" s="30" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I8" s="6" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J8" s="7" t="s"/>
       <x:c r="K8" s="9" t="s">
-        <x:v>108</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5275,7 +5269,7 @@
         <x:f>IF( D9 = 0, "x &lt; Min", IF(D9 = 1, "x &gt; Max", D9 * (C9 - B9) + B9) )</x:f>
       </x:c>
       <x:c r="K9" s="9" t="s">
-        <x:v>109</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5283,10 +5277,10 @@
     </x:row>
     <x:row r="11" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A11" s="9" t="s">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="K11" s="15" t="s">
-        <x:v>111</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5294,13 +5288,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B12" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C12" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
         <x:v>12</x:v>
@@ -5308,11 +5302,11 @@
       <x:c r="F12" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G12" s="30" t="s">
-        <x:v>14</x:v>
+      <x:c r="G12" s="31" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H12" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I12" s="6" t="s">
         <x:v>15</x:v>
@@ -5336,7 +5330,7 @@
         <x:v>-9.7</x:v>
       </x:c>
       <x:c r="F13" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G13" s="3" t="s"/>
       <x:c r="H13" s="7" t="s"/>
@@ -5347,7 +5341,7 @@
     <x:row r="14" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="15" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A15" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5355,13 +5349,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C16" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
         <x:v>12</x:v>
@@ -5373,7 +5367,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H16" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I16" s="6" t="s">
         <x:v>15</x:v>
@@ -5397,7 +5391,7 @@
         <x:v>-8.5</x:v>
       </x:c>
       <x:c r="F17" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I17" s="3">
         <x:f>IF( D17 = 0, "x &lt; Min", IF(D17 = 1, "x &gt; Max", D17 * (C17 - B17) + B17) )</x:f>
@@ -5406,7 +5400,7 @@
     <x:row r="18" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="19" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A19" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5414,13 +5408,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B20" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C20" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D20" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E20" s="6" t="s">
         <x:v>12</x:v>
@@ -5432,7 +5426,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H20" s="17">
-        <x:v>43945.595138888886</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I20" s="6" t="s">
         <x:v>15</x:v>
@@ -5456,7 +5450,7 @@
         <x:v>-2.5</x:v>
       </x:c>
       <x:c r="F21" s="3" t="s">
-        <x:v>116</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I21" s="3">
         <x:f>IF( D21 = 0, "x &lt; Min", IF(D21 = 1, "x &gt; Max", D21 * (C21 - B21) + B21) )</x:f>
@@ -5465,7 +5459,7 @@
     <x:row r="22" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="23" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A23" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5473,13 +5467,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B24" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C24" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D24" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E24" s="6" t="s">
         <x:v>12</x:v>
@@ -5491,7 +5485,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H24" s="17">
-        <x:v>43945.595138888886</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I24" s="6" t="s">
         <x:v>15</x:v>
@@ -5524,7 +5518,7 @@
     <x:row r="26" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="27" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A27" s="9" t="s">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5532,13 +5526,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B28" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C28" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D28" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E28" s="6" t="s">
         <x:v>12</x:v>
@@ -5550,7 +5544,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H28" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I28" s="6" t="s">
         <x:v>15</x:v>
@@ -5574,7 +5568,7 @@
         <x:v>12.5</x:v>
       </x:c>
       <x:c r="F29" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I29" s="3">
         <x:f>IF( D29 = 0, "x &lt; Min", IF(D29 = 1, "x &gt; Max", D29 * (C29 - B29) + B29) )</x:f>
@@ -5583,7 +5577,7 @@
     <x:row r="30" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="31" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A31" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5591,13 +5585,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B32" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C32" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D32" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E32" s="6" t="s">
         <x:v>12</x:v>
@@ -5609,7 +5603,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H32" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I32" s="6" t="s">
         <x:v>15</x:v>
@@ -5633,7 +5627,7 @@
         <x:v>18.5</x:v>
       </x:c>
       <x:c r="F33" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I33" s="3">
         <x:f>IF( D33 = 0, "x &lt; Min", IF(D33 = 1, "x &gt; Max", D33 * (C33 - B33) + B33) )</x:f>
@@ -5642,7 +5636,7 @@
     <x:row r="34" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="35" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A35" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5650,13 +5644,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B36" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C36" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D36" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E36" s="6" t="s">
         <x:v>12</x:v>
@@ -5668,7 +5662,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H36" s="17">
-        <x:v>43945.595138888886</x:v>
+        <x:v>44078.68472222222</x:v>
       </x:c>
       <x:c r="I36" s="6" t="s">
         <x:v>15</x:v>
@@ -5692,7 +5686,7 @@
         <x:v>19.7</x:v>
       </x:c>
       <x:c r="F37" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I37" s="3">
         <x:f>IF( D37 = 0, "x &lt; Min", IF(D37 = 1, "x &gt; Max", D37 * (C37 - B37) + B37) )</x:f>
@@ -5701,7 +5695,7 @@
     <x:row r="38" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="39" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A39" s="9" t="s">
-        <x:v>124</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5709,13 +5703,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B40" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C40" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D40" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E40" s="6" t="s">
         <x:v>12</x:v>
@@ -5723,11 +5717,11 @@
       <x:c r="F40" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G40" s="31" t="s">
-        <x:v>32</x:v>
+      <x:c r="G40" s="30" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H40" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I40" s="6" t="s">
         <x:v>15</x:v>
@@ -5759,12 +5753,12 @@
     </x:row>
     <x:row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <x:c r="A43" s="5" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A44" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5772,13 +5766,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B45" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C45" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D45" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E45" s="6" t="s">
         <x:v>12</x:v>
@@ -5786,11 +5780,11 @@
       <x:c r="F45" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G45" s="31" t="s">
-        <x:v>32</x:v>
+      <x:c r="G45" s="30" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H45" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I45" s="6" t="s">
         <x:v>15</x:v>
@@ -5825,7 +5819,7 @@
     </x:row>
     <x:row r="48" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A48" s="9" t="s">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5833,13 +5827,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B49" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C49" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D49" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E49" s="6" t="s">
         <x:v>12</x:v>
@@ -5851,7 +5845,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="17">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I49" s="6" t="s">
         <x:v>15</x:v>
@@ -5874,7 +5868,7 @@
         <x:v>-29.65</x:v>
       </x:c>
       <x:c r="F50" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="H50" s="7" t="s"/>
       <x:c r="I50" s="3">
@@ -5884,7 +5878,7 @@
     <x:row r="51" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="52" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A52" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5892,13 +5886,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B53" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C53" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D53" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E53" s="6" t="s">
         <x:v>12</x:v>
@@ -5910,7 +5904,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H53" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I53" s="6" t="s">
         <x:v>15</x:v>
@@ -5933,7 +5927,7 @@
         <x:v>-28.25</x:v>
       </x:c>
       <x:c r="F54" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I54" s="3">
         <x:f>IF( D54 = 0, "x &lt; Min", IF(D54 = 1, "x &gt; Max", D54 * (C54 - B54) + B54) )</x:f>
@@ -5942,7 +5936,7 @@
     <x:row r="55" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="56" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A56" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5950,13 +5944,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B57" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C57" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D57" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E57" s="6" t="s">
         <x:v>12</x:v>
@@ -5968,7 +5962,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H57" s="17">
-        <x:v>43945.595138888886</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I57" s="6" t="s">
         <x:v>15</x:v>
@@ -5991,7 +5985,7 @@
         <x:v>-21.25</x:v>
       </x:c>
       <x:c r="F58" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I58" s="3">
         <x:f>IF( D58 = 0, "x &lt; Min", IF(D58 = 1, "x &gt; Max", D58 * (C58 - B58) + B58) )</x:f>
@@ -6000,7 +5994,7 @@
     <x:row r="59" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="60" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A60" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6008,13 +6002,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B61" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C61" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D61" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E61" s="6" t="s">
         <x:v>12</x:v>
@@ -6026,7 +6020,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H61" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I61" s="6" t="s">
         <x:v>15</x:v>
@@ -6058,7 +6052,7 @@
     <x:row r="63" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="64" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A64" s="9" t="s">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6066,13 +6060,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B65" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C65" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D65" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E65" s="6" t="s">
         <x:v>12</x:v>
@@ -6084,7 +6078,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H65" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I65" s="6" t="s">
         <x:v>15</x:v>
@@ -6107,7 +6101,7 @@
         <x:v>-3.75</x:v>
       </x:c>
       <x:c r="F66" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I66" s="3">
         <x:f>IF( D66 = 0, "x &lt; Min", IF(D66 = 1, "x &gt; Max", D66 * (C66 - B66) + B66) )</x:f>
@@ -6116,7 +6110,7 @@
     <x:row r="67" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="68" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A68" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6124,13 +6118,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B69" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C69" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D69" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E69" s="6" t="s">
         <x:v>12</x:v>
@@ -6138,11 +6132,11 @@
       <x:c r="F69" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G69" s="30" t="s">
-        <x:v>14</x:v>
+      <x:c r="G69" s="31" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H69" s="17">
-        <x:v>43945.595138888886</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I69" s="6" t="s">
         <x:v>15</x:v>
@@ -6165,7 +6159,7 @@
         <x:v>3.25</x:v>
       </x:c>
       <x:c r="F70" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I70" s="3">
         <x:f>IF( D70 = 0, "x &lt; Min", IF(D70 = 1, "x &gt; Max", D70 * (C70 - B70) + B70) )</x:f>
@@ -6174,7 +6168,7 @@
     <x:row r="71" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="72" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A72" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6182,13 +6176,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B73" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C73" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D73" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E73" s="6" t="s">
         <x:v>12</x:v>
@@ -6196,11 +6190,11 @@
       <x:c r="F73" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G73" s="30" t="s">
-        <x:v>14</x:v>
+      <x:c r="G73" s="31" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H73" s="17">
-        <x:v>43945.595138888886</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I73" s="6" t="s">
         <x:v>15</x:v>
@@ -6223,7 +6217,7 @@
         <x:v>4.649999999999999</x:v>
       </x:c>
       <x:c r="F74" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I74" s="3">
         <x:f>IF( D74 = 0, "x &lt; Min", IF(D74 = 1, "x &gt; Max", D74 * (C74 - B74) + B74) )</x:f>
@@ -6232,7 +6226,7 @@
     <x:row r="75" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="76" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A76" s="9" t="s">
-        <x:v>124</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6240,13 +6234,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B77" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C77" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D77" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E77" s="6" t="s">
         <x:v>12</x:v>
@@ -6254,11 +6248,11 @@
       <x:c r="F77" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G77" s="43" t="s">
-        <x:v>32</x:v>
+      <x:c r="G77" s="32" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H77" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I77" s="6" t="s">
         <x:v>15</x:v>
@@ -6289,12 +6283,12 @@
     </x:row>
     <x:row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <x:c r="A80" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A81" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6302,13 +6296,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B82" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C82" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D82" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E82" s="6" t="s">
         <x:v>12</x:v>
@@ -6316,11 +6310,11 @@
       <x:c r="F82" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G82" s="43" t="s">
-        <x:v>32</x:v>
+      <x:c r="G82" s="32" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H82" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I82" s="6" t="s">
         <x:v>15</x:v>
@@ -6355,7 +6349,7 @@
     </x:row>
     <x:row r="85" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A85" s="9" t="s">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6363,13 +6357,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B86" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C86" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D86" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E86" s="6" t="s">
         <x:v>12</x:v>
@@ -6381,7 +6375,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H86" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I86" s="6" t="s">
         <x:v>15</x:v>
@@ -6404,7 +6398,7 @@
         <x:v>-0.98</x:v>
       </x:c>
       <x:c r="F87" s="3" t="s">
-        <x:v>131</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H87" s="7" t="s"/>
       <x:c r="I87" s="3">
@@ -6414,7 +6408,7 @@
     <x:row r="88" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="89" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A89" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6422,13 +6416,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B90" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C90" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D90" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E90" s="6" t="s">
         <x:v>12</x:v>
@@ -6436,11 +6430,11 @@
       <x:c r="F90" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G90" s="30" t="s">
-        <x:v>14</x:v>
+      <x:c r="G90" s="31" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H90" s="17">
-        <x:v>43945.595138888886</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I90" s="6" t="s">
         <x:v>15</x:v>
@@ -6463,7 +6457,7 @@
         <x:v>-0.9</x:v>
       </x:c>
       <x:c r="F91" s="3" t="s">
-        <x:v>132</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I91" s="3">
         <x:f>IF( D91 = 0, "x &lt; Min", IF(D91 = 1, "x &gt; Max", D91 * (C91 - B91) + B91) )</x:f>
@@ -6472,7 +6466,7 @@
     <x:row r="92" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="93" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A93" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6480,13 +6474,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B94" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C94" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D94" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E94" s="6" t="s">
         <x:v>12</x:v>
@@ -6498,7 +6492,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H94" s="17">
-        <x:v>43945.595138888886</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I94" s="6" t="s">
         <x:v>15</x:v>
@@ -6521,7 +6515,7 @@
         <x:v>-0.5</x:v>
       </x:c>
       <x:c r="F95" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="I95" s="3">
         <x:f>IF( D95 = 0, "x &lt; Min", IF(D95 = 1, "x &gt; Max", D95 * (C95 - B95) + B95) )</x:f>
@@ -6530,7 +6524,7 @@
     <x:row r="96" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="97" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A97" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6538,13 +6532,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B98" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C98" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D98" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E98" s="6" t="s">
         <x:v>12</x:v>
@@ -6556,7 +6550,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H98" s="17">
-        <x:v>43945.595138888886</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I98" s="6" t="s">
         <x:v>15</x:v>
@@ -6588,7 +6582,7 @@
     <x:row r="100" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="101" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A101" s="9" t="s">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6596,13 +6590,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B102" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C102" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D102" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E102" s="6" t="s">
         <x:v>12</x:v>
@@ -6614,7 +6608,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H102" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I102" s="6" t="s">
         <x:v>15</x:v>
@@ -6637,7 +6631,7 @@
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="F103" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I103" s="3">
         <x:f>IF( D103 = 0, "x &lt; Min", IF(D103 = 1, "x &gt; Max", D103 * (C103 - B103) + B103) )</x:f>
@@ -6646,7 +6640,7 @@
     <x:row r="104" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="105" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A105" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6654,13 +6648,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B106" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C106" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D106" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E106" s="6" t="s">
         <x:v>12</x:v>
@@ -6672,7 +6666,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H106" s="17">
-        <x:v>43945.595138888886</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I106" s="6" t="s">
         <x:v>15</x:v>
@@ -6695,7 +6689,7 @@
         <x:v>0.8999999999999999</x:v>
       </x:c>
       <x:c r="F107" s="3" t="s">
-        <x:v>134</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I107" s="3">
         <x:f>IF( D107 = 0, "x &lt; Min", IF(D107 = 1, "x &gt; Max", D107 * (C107 - B107) + B107) )</x:f>
@@ -6704,7 +6698,7 @@
     <x:row r="108" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="109" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A109" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6712,13 +6706,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B110" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C110" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D110" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E110" s="6" t="s">
         <x:v>12</x:v>
@@ -6730,7 +6724,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H110" s="17">
-        <x:v>43945.595138888886</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I110" s="6" t="s">
         <x:v>15</x:v>
@@ -6753,7 +6747,7 @@
         <x:v>0.98</x:v>
       </x:c>
       <x:c r="F111" s="3" t="s">
-        <x:v>135</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="I111" s="3">
         <x:f>IF( D111 = 0, "x &lt; Min", IF(D111 = 1, "x &gt; Max", D111 * (C111 - B111) + B111) )</x:f>
@@ -6762,7 +6756,7 @@
     <x:row r="112" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="113" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A113" s="9" t="s">
-        <x:v>124</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6770,13 +6764,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B114" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C114" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D114" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E114" s="6" t="s">
         <x:v>12</x:v>
@@ -6784,11 +6778,11 @@
       <x:c r="F114" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G114" s="43" t="s">
-        <x:v>32</x:v>
+      <x:c r="G114" s="32" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H114" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I114" s="6" t="s">
         <x:v>15</x:v>
@@ -6819,12 +6813,12 @@
     </x:row>
     <x:row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <x:c r="A117" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A118" s="9" t="s">
-        <x:v>105</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6832,13 +6826,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B119" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C119" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D119" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E119" s="6" t="s">
         <x:v>12</x:v>
@@ -6846,11 +6840,11 @@
       <x:c r="F119" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G119" s="43" t="s">
-        <x:v>32</x:v>
+      <x:c r="G119" s="32" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H119" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I119" s="6" t="s">
         <x:v>15</x:v>
@@ -6885,7 +6879,7 @@
     </x:row>
     <x:row r="122" spans="1:15" s="0" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A122" s="9" t="s">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s"/>
       <x:c r="C122" s="0" t="s"/>
@@ -6907,13 +6901,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B123" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C123" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D123" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E123" s="6" t="s">
         <x:v>12</x:v>
@@ -6925,7 +6919,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H123" s="17">
-        <x:v>43945.595138888886</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I123" s="6" t="s">
         <x:v>15</x:v>
@@ -6958,7 +6952,7 @@
     <x:row r="125" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="126" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A126" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6966,13 +6960,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B127" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C127" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D127" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E127" s="6" t="s">
         <x:v>12</x:v>
@@ -6984,7 +6978,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H127" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I127" s="6" t="s">
         <x:v>15</x:v>
@@ -7016,7 +7010,7 @@
     <x:row r="129" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="130" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A130" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7024,13 +7018,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B131" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C131" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D131" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E131" s="6" t="s">
         <x:v>12</x:v>
@@ -7042,7 +7036,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H131" s="17">
-        <x:v>43945.595138888886</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I131" s="6" t="s">
         <x:v>15</x:v>
@@ -7065,7 +7059,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F132" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I132" s="3">
         <x:f>IF( D132 = 0, "x &lt; Min", IF(D132 = 1, "x &gt; Max", D132 * (C132 - B132) + B132) )</x:f>
@@ -7074,7 +7068,7 @@
     <x:row r="133" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="134" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A134" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7082,13 +7076,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B135" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C135" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D135" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E135" s="6" t="s">
         <x:v>12</x:v>
@@ -7100,7 +7094,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H135" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I135" s="6" t="s">
         <x:v>15</x:v>
@@ -7132,7 +7126,7 @@
     <x:row r="137" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="138" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A138" s="9" t="s">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7140,13 +7134,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B139" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C139" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D139" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E139" s="6" t="s">
         <x:v>12</x:v>
@@ -7158,7 +7152,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H139" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I139" s="6" t="s">
         <x:v>15</x:v>
@@ -7190,7 +7184,7 @@
     <x:row r="141" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="142" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A142" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:15" s="0" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7198,13 +7192,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B143" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C143" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D143" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E143" s="6" t="s">
         <x:v>12</x:v>
@@ -7216,7 +7210,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H143" s="17">
-        <x:v>43945.595138888886</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I143" s="6" t="s">
         <x:v>15</x:v>
@@ -7239,7 +7233,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="F144" s="3" t="s">
-        <x:v>137</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I144" s="3">
         <x:f>IF( D144 = 0, "x &lt; Min", IF(D144 = 1, "x &gt; Max", D144 * (C144 - B144) + B144) )</x:f>
@@ -7248,7 +7242,7 @@
     <x:row r="145" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="146" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A146" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7256,13 +7250,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B147" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C147" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D147" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E147" s="6" t="s">
         <x:v>12</x:v>
@@ -7274,7 +7268,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H147" s="17">
-        <x:v>43945.595138888886</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I147" s="6" t="s">
         <x:v>15</x:v>
@@ -7297,7 +7291,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="F148" s="3" t="s">
-        <x:v>138</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="I148" s="3">
         <x:f>IF( D148 = 0, "x &lt; Min", IF(D148 = 1, "x &gt; Max", D148 * (C148 - B148) + B148) )</x:f>
@@ -7306,7 +7300,7 @@
     <x:row r="149" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="150" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A150" s="9" t="s">
-        <x:v>124</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7314,13 +7308,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B151" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C151" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D151" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E151" s="6" t="s">
         <x:v>12</x:v>
@@ -7328,11 +7322,11 @@
       <x:c r="F151" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G151" s="43" t="s">
-        <x:v>32</x:v>
+      <x:c r="G151" s="32" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H151" s="17">
-        <x:v>43945.59444444445</x:v>
+        <x:v>44078.68472222222</x:v>
       </x:c>
       <x:c r="I151" s="6" t="s">
         <x:v>15</x:v>
@@ -7403,7 +7397,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A1" s="4" t="s">
-        <x:v>139</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
         <x:v>1</x:v>
@@ -7416,7 +7410,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>140</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s"/>
       <x:c r="D2" s="4" t="s"/>
@@ -7449,7 +7443,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="J6" s="11" t="s">
-        <x:v>141</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7472,13 +7466,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="6" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H7" s="6" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="J7" s="9" t="s">
         <x:v>142</x:v>
-      </x:c>
-      <x:c r="H7" s="6" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="J7" s="9" t="s">
-        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -7530,10 +7524,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H11" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -7584,10 +7578,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H15" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -7637,10 +7631,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H19" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -7715,7 +7709,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A1" s="4" t="s">
-        <x:v>145</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
         <x:v>1</x:v>
@@ -7726,7 +7720,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>146</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -7764,7 +7758,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>147</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
         <x:v>63</x:v>
@@ -7773,10 +7767,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H7" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -7790,10 +7784,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G8" s="3" t="str">
         <x:f>IF(F8 = E8, "Passed", "Failed")</x:f>
@@ -7810,10 +7804,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G9" s="3" t="str">
         <x:f>IF(F9 = E9, "Passed", "Failed")</x:f>
@@ -7838,7 +7832,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>147</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
         <x:v>63</x:v>
@@ -7847,10 +7841,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G12" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H12" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -7864,10 +7858,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s">
-        <x:v>150</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E13" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G13" s="3" t="str">
         <x:f>IF(F13 = E13, "Passed", "Failed")</x:f>
@@ -7884,10 +7878,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G14" s="3" t="str">
         <x:f>IF(F14 = E14, "Passed", "Failed")</x:f>
@@ -7947,12 +7941,12 @@
         <x:v>43859</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="B4" s="11" t="s">
-        <x:v>153</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C4" s="13" t="s"/>
       <x:c r="D4" s="13" t="s"/>
@@ -7961,7 +7955,7 @@
     </x:row>
     <x:row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="B5" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9" s="0" customFormat="1" x14ac:dyDescent="0.25">
@@ -7977,7 +7971,7 @@
     </x:row>
     <x:row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="B58" s="9" t="s">
-        <x:v>155</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8072,7 +8066,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -8124,7 +8118,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -8176,7 +8170,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -8228,7 +8222,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -8361,7 +8355,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -8416,7 +8410,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -8468,7 +8462,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -8520,7 +8514,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -8654,7 +8648,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -8727,7 +8721,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -8784,7 +8778,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -8841,7 +8835,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -8994,7 +8988,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -9049,7 +9043,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -9102,7 +9096,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -9154,7 +9148,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -9296,7 +9290,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -9351,7 +9345,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -9403,7 +9397,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -9457,11 +9451,11 @@
       <x:c r="F19" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G19" s="30" t="s">
-        <x:v>14</x:v>
+      <x:c r="G19" s="31" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -17777,7 +17771,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -17832,7 +17826,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -17880,11 +17874,11 @@
       <x:c r="F15" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G15" s="30" t="s">
-        <x:v>14</x:v>
+      <x:c r="G15" s="31" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -17932,11 +17926,11 @@
       <x:c r="F19" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G19" s="30" t="s">
-        <x:v>14</x:v>
+      <x:c r="G19" s="31" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>43945.447222222225</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -18067,7 +18061,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="J7" s="9" t="s">
         <x:v>64</x:v>
@@ -18116,7 +18110,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -18162,7 +18156,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -18208,7 +18202,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" s="0" customFormat="1" x14ac:dyDescent="0.25">
@@ -18340,11 +18334,11 @@
       <x:c r="F7" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G7" s="30" t="s">
-        <x:v>14</x:v>
+      <x:c r="G7" s="31" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>43945.50069444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -18367,7 +18361,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I8" s="14">
         <x:f>D8</x:f>
@@ -18397,11 +18391,11 @@
       <x:c r="F11" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G11" s="30" t="s">
-        <x:v>14</x:v>
+      <x:c r="G11" s="31" t="s">
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>43945.50069444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -18458,7 +18452,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>43945.50069444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -18481,7 +18475,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F16" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I16" s="3">
         <x:f>D16</x:f>
@@ -18530,7 +18524,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>43945.50069444445</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -18553,7 +18547,7 @@
         <x:v>2147483647</x:v>
       </x:c>
       <x:c r="F20" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I20" s="3">
         <x:f>D20</x:f>

--- a/StatisticsTests/ExcelTesting/ExcelData/Uniform.xlsx
+++ b/StatisticsTests/ExcelTesting/ExcelData/Uniform.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <x:si>
     <x:r>
       <x:rPr>
@@ -429,13 +429,13 @@
     <x:t>75</x:t>
   </x:si>
   <x:si>
-    <x:t>102.08333333333333</x:t>
+    <x:t>102.083333333333</x:t>
   </x:si>
   <x:si>
-    <x:t>0.3333333333333333</x:t>
+    <x:t>0.333333333333333</x:t>
   </x:si>
   <x:si>
-    <x:t>833.3333333333334</x:t>
+    <x:t>833.333333333333</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -470,16 +470,16 @@
     <x:t>Std. Dev. = SQRT(Variance) = SQRT ( 1/12 (Max - Min)² )</x:t>
   </x:si>
   <x:si>
-    <x:t>8.660254037844387</x:t>
+    <x:t>8.66025403784439</x:t>
   </x:si>
   <x:si>
-    <x:t>10.103629710818451</x:t>
+    <x:t>10.1036297108185</x:t>
   </x:si>
   <x:si>
-    <x:t>0.5773502691896258</x:t>
+    <x:t>0.577350269189626</x:t>
   </x:si>
   <x:si>
-    <x:t>28.86751345948129</x:t>
+    <x:t>28.8675134594813</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -544,6 +544,12 @@
   </x:si>
   <x:si>
     <x:t>Sample Size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
   </x:si>
   <x:si>
     <x:t>2147483647</x:t>
@@ -670,10 +676,10 @@
     <x:t>IF(x &lt; Min, 0, IF(x &gt; Max, 1, [ (x - Min) / (Max - Min) ] ) )</x:t>
   </x:si>
   <x:si>
-    <x:t>0.5333333333333333</x:t>
+    <x:t>0.533333333333333</x:t>
   </x:si>
   <x:si>
-    <x:t>0.8571428571428571</x:t>
+    <x:t>0.857142857142857</x:t>
   </x:si>
   <x:si>
     <x:t>0.625</x:t>
@@ -753,7 +759,7 @@
     <x:t>IF( p = 0, "x &lt; Min", IF(p = 1, "x &gt; Max", p * (Max - Min) + Min) )</x:t>
   </x:si>
   <x:si>
-    <x:t>-9.700000000000001</x:t>
+    <x:t>-9.7</x:t>
   </x:si>
   <x:si>
     <x:t>3. Test 05% Value: InverseCDF(0.05)</x:t>
@@ -804,7 +810,7 @@
     <x:t>-3.75</x:t>
   </x:si>
   <x:si>
-    <x:t>3.2499999999999987</x:t>
+    <x:t>3.25</x:t>
   </x:si>
   <x:si>
     <x:t>4.65</x:t>
@@ -813,13 +819,13 @@
     <x:t>-0.98</x:t>
   </x:si>
   <x:si>
-    <x:t>-0.8999999999999999</x:t>
+    <x:t>-0.9</x:t>
   </x:si>
   <x:si>
     <x:t>-0.5</x:t>
   </x:si>
   <x:si>
-    <x:t>0.8999999999999999</x:t>
+    <x:t>0.9</x:t>
   </x:si>
   <x:si>
     <x:t>0.98</x:t>
@@ -1961,7 +1967,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -2014,7 +2020,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -2066,7 +2072,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -2131,7 +2137,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -2209,7 +2215,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A1" s="4" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
         <x:v>1</x:v>
@@ -2221,7 +2227,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -2242,18 +2248,18 @@
     </x:row>
     <x:row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A6" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K6" s="11" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A7" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K7" s="12" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:19" s="0" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2261,13 +2267,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C8" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
         <x:v>12</x:v>
@@ -2279,7 +2285,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I8" s="6" t="s">
         <x:v>15</x:v>
@@ -2312,7 +2318,7 @@
       </x:c>
       <x:c r="J9" s="7" t="s"/>
       <x:c r="K9" s="33" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L9" s="34" t="s"/>
       <x:c r="M9" s="34" t="s"/>
@@ -2324,33 +2330,33 @@
     </x:row>
     <x:row r="10" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="K10" s="35" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L10" s="36" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="M10" s="35" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="M10" s="35" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="N10" s="36" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O10" s="35" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P10" s="36" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="Q10" s="35" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="R10" s="36" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:19" s="0" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A11" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
@@ -2392,13 +2398,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B12" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C12" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
         <x:v>12</x:v>
@@ -2410,7 +2416,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H12" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I12" s="6" t="s">
         <x:v>15</x:v>
@@ -2458,7 +2464,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F13" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H13" s="7" t="s"/>
       <x:c r="I13" s="3">
@@ -2518,7 +2524,7 @@
     </x:row>
     <x:row r="15" spans="1:19" s="0" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A15" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K15" s="40">
         <x:f>D25</x:f>
@@ -2550,13 +2556,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C16" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
         <x:v>12</x:v>
@@ -2568,7 +2574,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H16" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I16" s="6" t="s">
         <x:v>15</x:v>
@@ -2589,10 +2595,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E17" s="3" t="n">
-        <x:v>0.03333333333333333</x:v>
+        <x:v>0.0333333333333333</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G17" s="3" t="s"/>
       <x:c r="H17" s="7" t="s"/>
@@ -2604,7 +2610,7 @@
     <x:row r="18" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="19" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A19" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2612,13 +2618,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B20" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C20" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D20" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E20" s="6" t="s">
         <x:v>12</x:v>
@@ -2630,7 +2636,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H20" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I20" s="6" t="s">
         <x:v>15</x:v>
@@ -2654,7 +2660,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F21" s="3" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H21" s="7" t="s"/>
       <x:c r="I21" s="3">
@@ -2665,7 +2671,7 @@
     <x:row r="22" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="23" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A23" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2673,13 +2679,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B24" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C24" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D24" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E24" s="6" t="s">
         <x:v>12</x:v>
@@ -2691,7 +2697,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H24" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I24" s="6" t="s">
         <x:v>15</x:v>
@@ -2725,12 +2731,12 @@
     </x:row>
     <x:row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A27" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A28" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2738,13 +2744,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B29" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C29" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D29" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E29" s="6" t="s">
         <x:v>12</x:v>
@@ -2756,7 +2762,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H29" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I29" s="6" t="s">
         <x:v>15</x:v>
@@ -2791,7 +2797,7 @@
     <x:row r="31" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="32" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A32" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2799,13 +2805,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B33" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C33" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D33" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E33" s="6" t="s">
         <x:v>12</x:v>
@@ -2817,7 +2823,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H33" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I33" s="6" t="s">
         <x:v>15</x:v>
@@ -2841,7 +2847,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F34" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H34" s="7" t="s"/>
       <x:c r="I34" s="3">
@@ -2852,7 +2858,7 @@
     <x:row r="35" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="36" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A36" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2860,13 +2866,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B37" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C37" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D37" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E37" s="6" t="s">
         <x:v>12</x:v>
@@ -2878,7 +2884,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H37" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I37" s="6" t="s">
         <x:v>15</x:v>
@@ -2899,10 +2905,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E38" s="3" t="n">
-        <x:v>0.02857142857142857</x:v>
+        <x:v>0.0285714285714286</x:v>
       </x:c>
       <x:c r="F38" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H38" s="7" t="s"/>
       <x:c r="I38" s="3">
@@ -2913,7 +2919,7 @@
     <x:row r="39" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="40" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A40" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2921,13 +2927,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B41" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C41" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D41" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E41" s="6" t="s">
         <x:v>12</x:v>
@@ -2939,7 +2945,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H41" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I41" s="6" t="s">
         <x:v>15</x:v>
@@ -2963,7 +2969,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F42" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H42" s="7" t="s"/>
       <x:c r="I42" s="3">
@@ -2974,7 +2980,7 @@
     <x:row r="43" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="44" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A44" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2982,13 +2988,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B45" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C45" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D45" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E45" s="6" t="s">
         <x:v>12</x:v>
@@ -3000,7 +3006,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H45" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I45" s="6" t="s">
         <x:v>15</x:v>
@@ -3034,12 +3040,12 @@
     </x:row>
     <x:row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A48" s="5" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A49" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3047,13 +3053,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B50" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C50" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D50" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E50" s="6" t="s">
         <x:v>12</x:v>
@@ -3065,7 +3071,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H50" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I50" s="6" t="s">
         <x:v>15</x:v>
@@ -3100,7 +3106,7 @@
     <x:row r="52" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="53" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A53" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3108,13 +3114,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B54" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C54" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D54" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E54" s="6" t="s">
         <x:v>12</x:v>
@@ -3126,7 +3132,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H54" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I54" s="6" t="s">
         <x:v>15</x:v>
@@ -3150,7 +3156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F55" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H55" s="7" t="s"/>
       <x:c r="I55" s="3">
@@ -3161,7 +3167,7 @@
     <x:row r="56" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="57" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A57" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3169,13 +3175,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B58" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C58" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D58" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E58" s="6" t="s">
         <x:v>12</x:v>
@@ -3187,7 +3193,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H58" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I58" s="6" t="s">
         <x:v>15</x:v>
@@ -3211,7 +3217,7 @@
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="F59" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H59" s="7" t="s"/>
       <x:c r="I59" s="3">
@@ -3222,7 +3228,7 @@
     <x:row r="60" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="61" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A61" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3230,13 +3236,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B62" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C62" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D62" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E62" s="6" t="s">
         <x:v>12</x:v>
@@ -3248,7 +3254,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H62" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I62" s="6" t="s">
         <x:v>15</x:v>
@@ -3272,7 +3278,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F63" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H63" s="7" t="s"/>
       <x:c r="I63" s="3">
@@ -3283,7 +3289,7 @@
     <x:row r="64" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="65" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A65" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3291,13 +3297,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B66" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C66" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D66" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E66" s="6" t="s">
         <x:v>12</x:v>
@@ -3309,7 +3315,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I66" s="6" t="s">
         <x:v>15</x:v>
@@ -3343,12 +3349,12 @@
     </x:row>
     <x:row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A69" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A70" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3356,13 +3362,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B71" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C71" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D71" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E71" s="6" t="s">
         <x:v>12</x:v>
@@ -3374,7 +3380,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H71" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I71" s="6" t="s">
         <x:v>15</x:v>
@@ -3409,7 +3415,7 @@
     <x:row r="73" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="74" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A74" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3417,13 +3423,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B75" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C75" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D75" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E75" s="6" t="s">
         <x:v>12</x:v>
@@ -3435,7 +3441,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H75" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I75" s="6" t="s">
         <x:v>15</x:v>
@@ -3459,7 +3465,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F76" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H76" s="7" t="s"/>
       <x:c r="I76" s="3">
@@ -3470,7 +3476,7 @@
     <x:row r="77" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="78" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A78" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3478,13 +3484,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B79" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C79" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D79" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E79" s="6" t="s">
         <x:v>12</x:v>
@@ -3496,7 +3502,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H79" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I79" s="6" t="s">
         <x:v>15</x:v>
@@ -3520,7 +3526,7 @@
         <x:v>0.01</x:v>
       </x:c>
       <x:c r="F80" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H80" s="7" t="s"/>
       <x:c r="I80" s="3">
@@ -3531,7 +3537,7 @@
     <x:row r="81" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="82" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A82" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3539,13 +3545,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B83" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C83" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D83" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E83" s="6" t="s">
         <x:v>12</x:v>
@@ -3557,7 +3563,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H83" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I83" s="6" t="s">
         <x:v>15</x:v>
@@ -3581,7 +3587,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F84" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H84" s="7" t="s"/>
       <x:c r="I84" s="3">
@@ -3592,7 +3598,7 @@
     <x:row r="85" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="86" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A86" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3600,13 +3606,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B87" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C87" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D87" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E87" s="6" t="s">
         <x:v>12</x:v>
@@ -3618,7 +3624,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H87" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I87" s="6" t="s">
         <x:v>15</x:v>
@@ -3705,7 +3711,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A1" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
         <x:v>1</x:v>
@@ -3718,7 +3724,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s"/>
     </x:row>
@@ -3742,18 +3748,18 @@
     </x:row>
     <x:row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A6" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K6" s="11" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A7" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K7" s="9" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:19" s="0" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3761,13 +3767,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C8" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
         <x:v>12</x:v>
@@ -3779,7 +3785,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I8" s="6" t="s">
         <x:v>15</x:v>
@@ -3810,7 +3816,7 @@
         <x:f>IF( D9 &lt; B9, 0, IF(D9 &gt; C9, 1, (D9 - B9) / (C9 - B9)) )</x:f>
       </x:c>
       <x:c r="K9" s="33" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L9" s="34" t="s"/>
       <x:c r="M9" s="34" t="s"/>
@@ -3822,33 +3828,33 @@
     </x:row>
     <x:row r="10" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="K10" s="35" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L10" s="36" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="M10" s="35" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="M10" s="35" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="N10" s="36" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O10" s="35" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P10" s="36" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="Q10" s="35" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="R10" s="36" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A11" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="K11" s="37">
         <x:f>D9</x:f>
@@ -3880,13 +3886,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B12" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C12" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
         <x:v>12</x:v>
@@ -3898,7 +3904,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H12" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I12" s="6" t="s">
         <x:v>15</x:v>
@@ -4004,7 +4010,7 @@
     </x:row>
     <x:row r="15" spans="1:19" s="0" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <x:c r="A15" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K15" s="40">
         <x:f>D25</x:f>
@@ -4036,13 +4042,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C16" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
         <x:v>12</x:v>
@@ -4054,7 +4060,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H16" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I16" s="6" t="s">
         <x:v>15</x:v>
@@ -4074,10 +4080,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E17" s="3" t="n">
-        <x:v>0.5333333333333333</x:v>
+        <x:v>0.533333333333333</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G17" s="3" t="s"/>
       <x:c r="H17" s="7" t="s"/>
@@ -4088,7 +4094,7 @@
     <x:row r="18" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="19" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A19" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4096,13 +4102,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B20" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C20" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D20" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E20" s="6" t="s">
         <x:v>12</x:v>
@@ -4114,7 +4120,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H20" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I20" s="6" t="s">
         <x:v>15</x:v>
@@ -4147,7 +4153,7 @@
     <x:row r="22" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="23" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A23" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4155,13 +4161,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B24" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C24" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D24" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E24" s="6" t="s">
         <x:v>12</x:v>
@@ -4173,7 +4179,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H24" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I24" s="6" t="s">
         <x:v>15</x:v>
@@ -4205,12 +4211,12 @@
     </x:row>
     <x:row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A27" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A28" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4218,13 +4224,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B29" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C29" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D29" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E29" s="6" t="s">
         <x:v>12</x:v>
@@ -4236,7 +4242,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H29" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I29" s="6" t="s">
         <x:v>15</x:v>
@@ -4269,7 +4275,7 @@
     <x:row r="31" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="32" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A32" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4277,13 +4283,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B33" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C33" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D33" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E33" s="6" t="s">
         <x:v>12</x:v>
@@ -4295,7 +4301,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H33" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I33" s="6" t="s">
         <x:v>15</x:v>
@@ -4328,7 +4334,7 @@
     <x:row r="35" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="36" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A36" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4336,13 +4342,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B37" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C37" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D37" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E37" s="6" t="s">
         <x:v>12</x:v>
@@ -4354,7 +4360,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H37" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I37" s="6" t="s">
         <x:v>15</x:v>
@@ -4374,10 +4380,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E38" s="3" t="n">
-        <x:v>0.8571428571428571</x:v>
+        <x:v>0.857142857142857</x:v>
       </x:c>
       <x:c r="F38" s="3" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H38" s="7" t="s"/>
       <x:c r="I38" s="3">
@@ -4387,7 +4393,7 @@
     <x:row r="39" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="40" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A40" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4395,13 +4401,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B41" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C41" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D41" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E41" s="6" t="s">
         <x:v>12</x:v>
@@ -4413,7 +4419,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H41" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I41" s="6" t="s">
         <x:v>15</x:v>
@@ -4446,7 +4452,7 @@
     <x:row r="43" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="44" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A44" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4454,13 +4460,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B45" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C45" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D45" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E45" s="6" t="s">
         <x:v>12</x:v>
@@ -4472,7 +4478,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H45" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I45" s="6" t="s">
         <x:v>15</x:v>
@@ -4504,12 +4510,12 @@
     </x:row>
     <x:row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A48" s="5" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A49" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4517,13 +4523,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B50" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C50" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D50" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E50" s="6" t="s">
         <x:v>12</x:v>
@@ -4535,7 +4541,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H50" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I50" s="6" t="s">
         <x:v>15</x:v>
@@ -4568,7 +4574,7 @@
     <x:row r="52" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="53" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A53" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4576,13 +4582,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B54" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C54" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D54" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E54" s="6" t="s">
         <x:v>12</x:v>
@@ -4594,7 +4600,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H54" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I54" s="6" t="s">
         <x:v>15</x:v>
@@ -4627,7 +4633,7 @@
     <x:row r="56" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="57" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A57" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4635,13 +4641,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B58" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C58" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D58" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E58" s="6" t="s">
         <x:v>12</x:v>
@@ -4653,7 +4659,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H58" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I58" s="6" t="s">
         <x:v>15</x:v>
@@ -4676,7 +4682,7 @@
         <x:v>0.625</x:v>
       </x:c>
       <x:c r="F59" s="3" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H59" s="7" t="s"/>
       <x:c r="I59" s="3">
@@ -4686,7 +4692,7 @@
     <x:row r="60" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="61" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A61" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4694,13 +4700,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B62" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C62" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D62" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E62" s="6" t="s">
         <x:v>12</x:v>
@@ -4712,7 +4718,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H62" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I62" s="6" t="s">
         <x:v>15</x:v>
@@ -4745,7 +4751,7 @@
     <x:row r="64" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="65" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A65" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4753,13 +4759,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B66" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C66" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D66" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E66" s="6" t="s">
         <x:v>12</x:v>
@@ -4771,7 +4777,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I66" s="6" t="s">
         <x:v>15</x:v>
@@ -4803,12 +4809,12 @@
     </x:row>
     <x:row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <x:c r="A69" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A70" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4816,13 +4822,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B71" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C71" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D71" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E71" s="6" t="s">
         <x:v>12</x:v>
@@ -4834,7 +4840,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H71" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I71" s="6" t="s">
         <x:v>15</x:v>
@@ -4867,7 +4873,7 @@
     <x:row r="73" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="74" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A74" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4875,13 +4881,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B75" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C75" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D75" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E75" s="6" t="s">
         <x:v>12</x:v>
@@ -4893,7 +4899,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H75" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I75" s="6" t="s">
         <x:v>15</x:v>
@@ -4926,7 +4932,7 @@
     <x:row r="77" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="78" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A78" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4934,13 +4940,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B79" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C79" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D79" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E79" s="6" t="s">
         <x:v>12</x:v>
@@ -4952,7 +4958,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H79" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I79" s="6" t="s">
         <x:v>15</x:v>
@@ -4975,7 +4981,7 @@
         <x:v>0.33</x:v>
       </x:c>
       <x:c r="F80" s="3" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H80" s="7" t="s"/>
       <x:c r="I80" s="3">
@@ -4985,7 +4991,7 @@
     <x:row r="81" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="82" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A82" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4993,13 +4999,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B83" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C83" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D83" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E83" s="6" t="s">
         <x:v>12</x:v>
@@ -5011,7 +5017,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H83" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I83" s="6" t="s">
         <x:v>15</x:v>
@@ -5044,7 +5050,7 @@
     <x:row r="85" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="86" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A86" s="9" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5052,13 +5058,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B87" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C87" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D87" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E87" s="6" t="s">
         <x:v>12</x:v>
@@ -5070,7 +5076,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H87" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I87" s="6" t="s">
         <x:v>15</x:v>
@@ -5161,7 +5167,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <x:c r="A1" s="4" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
         <x:v>1</x:v>
@@ -5173,7 +5179,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s"/>
     </x:row>
@@ -5197,19 +5203,19 @@
     </x:row>
     <x:row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <x:c r="A6" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K6" s="11" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A7" s="9" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="J7" s="6" t="s"/>
       <x:c r="K7" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5217,13 +5223,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C8" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
         <x:v>12</x:v>
@@ -5235,14 +5241,14 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I8" s="6" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="J8" s="7" t="s"/>
       <x:c r="K8" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5269,7 +5275,7 @@
         <x:f>IF( D9 = 0, "x &lt; Min", IF(D9 = 1, "x &gt; Max", D9 * (C9 - B9) + B9) )</x:f>
       </x:c>
       <x:c r="K9" s="9" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5277,10 +5283,10 @@
     </x:row>
     <x:row r="11" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A11" s="9" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="K11" s="15" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5288,13 +5294,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B12" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C12" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
         <x:v>12</x:v>
@@ -5302,11 +5308,11 @@
       <x:c r="F12" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G12" s="31" t="s">
-        <x:v>32</x:v>
+      <x:c r="G12" s="30" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H12" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I12" s="6" t="s">
         <x:v>15</x:v>
@@ -5330,7 +5336,7 @@
         <x:v>-9.7</x:v>
       </x:c>
       <x:c r="F13" s="3" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G13" s="3" t="s"/>
       <x:c r="H13" s="7" t="s"/>
@@ -5341,7 +5347,7 @@
     <x:row r="14" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="15" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A15" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5349,13 +5355,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C16" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
         <x:v>12</x:v>
@@ -5367,7 +5373,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H16" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I16" s="6" t="s">
         <x:v>15</x:v>
@@ -5391,7 +5397,7 @@
         <x:v>-8.5</x:v>
       </x:c>
       <x:c r="F17" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I17" s="3">
         <x:f>IF( D17 = 0, "x &lt; Min", IF(D17 = 1, "x &gt; Max", D17 * (C17 - B17) + B17) )</x:f>
@@ -5400,7 +5406,7 @@
     <x:row r="18" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="19" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A19" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5408,13 +5414,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B20" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C20" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D20" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E20" s="6" t="s">
         <x:v>12</x:v>
@@ -5426,7 +5432,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H20" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I20" s="6" t="s">
         <x:v>15</x:v>
@@ -5450,7 +5456,7 @@
         <x:v>-2.5</x:v>
       </x:c>
       <x:c r="F21" s="3" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I21" s="3">
         <x:f>IF( D21 = 0, "x &lt; Min", IF(D21 = 1, "x &gt; Max", D21 * (C21 - B21) + B21) )</x:f>
@@ -5459,7 +5465,7 @@
     <x:row r="22" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="23" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A23" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5467,13 +5473,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B24" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C24" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D24" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E24" s="6" t="s">
         <x:v>12</x:v>
@@ -5485,7 +5491,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H24" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I24" s="6" t="s">
         <x:v>15</x:v>
@@ -5518,7 +5524,7 @@
     <x:row r="26" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="27" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A27" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5526,13 +5532,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B28" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C28" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D28" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E28" s="6" t="s">
         <x:v>12</x:v>
@@ -5544,7 +5550,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H28" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I28" s="6" t="s">
         <x:v>15</x:v>
@@ -5568,7 +5574,7 @@
         <x:v>12.5</x:v>
       </x:c>
       <x:c r="F29" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I29" s="3">
         <x:f>IF( D29 = 0, "x &lt; Min", IF(D29 = 1, "x &gt; Max", D29 * (C29 - B29) + B29) )</x:f>
@@ -5577,7 +5583,7 @@
     <x:row r="30" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="31" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A31" s="9" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5585,13 +5591,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B32" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C32" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D32" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E32" s="6" t="s">
         <x:v>12</x:v>
@@ -5603,7 +5609,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H32" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I32" s="6" t="s">
         <x:v>15</x:v>
@@ -5627,7 +5633,7 @@
         <x:v>18.5</x:v>
       </x:c>
       <x:c r="F33" s="3" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I33" s="3">
         <x:f>IF( D33 = 0, "x &lt; Min", IF(D33 = 1, "x &gt; Max", D33 * (C33 - B33) + B33) )</x:f>
@@ -5636,7 +5642,7 @@
     <x:row r="34" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="35" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A35" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5644,13 +5650,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B36" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C36" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D36" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="6" t="s">
         <x:v>12</x:v>
@@ -5662,7 +5668,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H36" s="17">
-        <x:v>44078.68472222222</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I36" s="6" t="s">
         <x:v>15</x:v>
@@ -5686,7 +5692,7 @@
         <x:v>19.7</x:v>
       </x:c>
       <x:c r="F37" s="3" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I37" s="3">
         <x:f>IF( D37 = 0, "x &lt; Min", IF(D37 = 1, "x &gt; Max", D37 * (C37 - B37) + B37) )</x:f>
@@ -5695,7 +5701,7 @@
     <x:row r="38" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="39" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A39" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5703,13 +5709,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B40" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C40" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D40" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E40" s="6" t="s">
         <x:v>12</x:v>
@@ -5721,7 +5727,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H40" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I40" s="6" t="s">
         <x:v>15</x:v>
@@ -5753,12 +5759,12 @@
     </x:row>
     <x:row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <x:c r="A43" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A44" s="9" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5766,13 +5772,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B45" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C45" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D45" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E45" s="6" t="s">
         <x:v>12</x:v>
@@ -5784,7 +5790,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H45" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I45" s="6" t="s">
         <x:v>15</x:v>
@@ -5819,7 +5825,7 @@
     </x:row>
     <x:row r="48" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A48" s="9" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5827,13 +5833,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B49" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C49" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D49" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E49" s="6" t="s">
         <x:v>12</x:v>
@@ -5845,7 +5851,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I49" s="6" t="s">
         <x:v>15</x:v>
@@ -5868,7 +5874,7 @@
         <x:v>-29.65</x:v>
       </x:c>
       <x:c r="F50" s="3" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H50" s="7" t="s"/>
       <x:c r="I50" s="3">
@@ -5878,7 +5884,7 @@
     <x:row r="51" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="52" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A52" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5886,13 +5892,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B53" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C53" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D53" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E53" s="6" t="s">
         <x:v>12</x:v>
@@ -5904,7 +5910,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H53" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I53" s="6" t="s">
         <x:v>15</x:v>
@@ -5927,7 +5933,7 @@
         <x:v>-28.25</x:v>
       </x:c>
       <x:c r="F54" s="3" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I54" s="3">
         <x:f>IF( D54 = 0, "x &lt; Min", IF(D54 = 1, "x &gt; Max", D54 * (C54 - B54) + B54) )</x:f>
@@ -5936,7 +5942,7 @@
     <x:row r="55" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="56" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A56" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5944,13 +5950,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B57" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C57" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D57" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E57" s="6" t="s">
         <x:v>12</x:v>
@@ -5962,7 +5968,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H57" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I57" s="6" t="s">
         <x:v>15</x:v>
@@ -5985,7 +5991,7 @@
         <x:v>-21.25</x:v>
       </x:c>
       <x:c r="F58" s="3" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I58" s="3">
         <x:f>IF( D58 = 0, "x &lt; Min", IF(D58 = 1, "x &gt; Max", D58 * (C58 - B58) + B58) )</x:f>
@@ -5994,7 +6000,7 @@
     <x:row r="59" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="60" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A60" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6002,13 +6008,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B61" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C61" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D61" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E61" s="6" t="s">
         <x:v>12</x:v>
@@ -6020,7 +6026,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H61" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I61" s="6" t="s">
         <x:v>15</x:v>
@@ -6052,7 +6058,7 @@
     <x:row r="63" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="64" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A64" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6060,13 +6066,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B65" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C65" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D65" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E65" s="6" t="s">
         <x:v>12</x:v>
@@ -6078,7 +6084,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H65" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I65" s="6" t="s">
         <x:v>15</x:v>
@@ -6101,7 +6107,7 @@
         <x:v>-3.75</x:v>
       </x:c>
       <x:c r="F66" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I66" s="3">
         <x:f>IF( D66 = 0, "x &lt; Min", IF(D66 = 1, "x &gt; Max", D66 * (C66 - B66) + B66) )</x:f>
@@ -6110,7 +6116,7 @@
     <x:row r="67" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="68" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A68" s="9" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6118,13 +6124,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B69" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C69" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D69" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E69" s="6" t="s">
         <x:v>12</x:v>
@@ -6132,11 +6138,11 @@
       <x:c r="F69" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G69" s="31" t="s">
-        <x:v>32</x:v>
+      <x:c r="G69" s="30" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H69" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I69" s="6" t="s">
         <x:v>15</x:v>
@@ -6159,7 +6165,7 @@
         <x:v>3.25</x:v>
       </x:c>
       <x:c r="F70" s="3" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I70" s="3">
         <x:f>IF( D70 = 0, "x &lt; Min", IF(D70 = 1, "x &gt; Max", D70 * (C70 - B70) + B70) )</x:f>
@@ -6168,7 +6174,7 @@
     <x:row r="71" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="72" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A72" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6176,13 +6182,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B73" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C73" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D73" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E73" s="6" t="s">
         <x:v>12</x:v>
@@ -6190,11 +6196,11 @@
       <x:c r="F73" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G73" s="31" t="s">
-        <x:v>32</x:v>
+      <x:c r="G73" s="30" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H73" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I73" s="6" t="s">
         <x:v>15</x:v>
@@ -6214,10 +6220,10 @@
         <x:v>0.99</x:v>
       </x:c>
       <x:c r="E74" s="3" t="n">
-        <x:v>4.649999999999999</x:v>
+        <x:v>4.65</x:v>
       </x:c>
       <x:c r="F74" s="3" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I74" s="3">
         <x:f>IF( D74 = 0, "x &lt; Min", IF(D74 = 1, "x &gt; Max", D74 * (C74 - B74) + B74) )</x:f>
@@ -6226,7 +6232,7 @@
     <x:row r="75" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="76" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A76" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6234,13 +6240,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B77" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C77" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D77" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E77" s="6" t="s">
         <x:v>12</x:v>
@@ -6252,7 +6258,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H77" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I77" s="6" t="s">
         <x:v>15</x:v>
@@ -6283,12 +6289,12 @@
     </x:row>
     <x:row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <x:c r="A80" s="5" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A81" s="9" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6296,13 +6302,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B82" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C82" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D82" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E82" s="6" t="s">
         <x:v>12</x:v>
@@ -6314,7 +6320,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H82" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I82" s="6" t="s">
         <x:v>15</x:v>
@@ -6349,7 +6355,7 @@
     </x:row>
     <x:row r="85" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A85" s="9" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6357,13 +6363,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B86" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C86" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D86" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E86" s="6" t="s">
         <x:v>12</x:v>
@@ -6375,7 +6381,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H86" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I86" s="6" t="s">
         <x:v>15</x:v>
@@ -6398,7 +6404,7 @@
         <x:v>-0.98</x:v>
       </x:c>
       <x:c r="F87" s="3" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="H87" s="7" t="s"/>
       <x:c r="I87" s="3">
@@ -6408,7 +6414,7 @@
     <x:row r="88" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="89" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A89" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6416,13 +6422,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B90" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C90" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D90" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E90" s="6" t="s">
         <x:v>12</x:v>
@@ -6430,11 +6436,11 @@
       <x:c r="F90" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G90" s="31" t="s">
-        <x:v>32</x:v>
+      <x:c r="G90" s="30" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H90" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I90" s="6" t="s">
         <x:v>15</x:v>
@@ -6457,7 +6463,7 @@
         <x:v>-0.9</x:v>
       </x:c>
       <x:c r="F91" s="3" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I91" s="3">
         <x:f>IF( D91 = 0, "x &lt; Min", IF(D91 = 1, "x &gt; Max", D91 * (C91 - B91) + B91) )</x:f>
@@ -6466,7 +6472,7 @@
     <x:row r="92" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="93" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A93" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6474,13 +6480,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B94" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C94" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D94" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E94" s="6" t="s">
         <x:v>12</x:v>
@@ -6492,7 +6498,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H94" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I94" s="6" t="s">
         <x:v>15</x:v>
@@ -6515,7 +6521,7 @@
         <x:v>-0.5</x:v>
       </x:c>
       <x:c r="F95" s="3" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="I95" s="3">
         <x:f>IF( D95 = 0, "x &lt; Min", IF(D95 = 1, "x &gt; Max", D95 * (C95 - B95) + B95) )</x:f>
@@ -6524,7 +6530,7 @@
     <x:row r="96" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="97" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A97" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6532,13 +6538,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B98" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C98" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D98" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E98" s="6" t="s">
         <x:v>12</x:v>
@@ -6550,7 +6556,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H98" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I98" s="6" t="s">
         <x:v>15</x:v>
@@ -6582,7 +6588,7 @@
     <x:row r="100" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="101" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A101" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6590,13 +6596,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B102" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C102" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D102" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E102" s="6" t="s">
         <x:v>12</x:v>
@@ -6608,7 +6614,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H102" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I102" s="6" t="s">
         <x:v>15</x:v>
@@ -6631,7 +6637,7 @@
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="F103" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I103" s="3">
         <x:f>IF( D103 = 0, "x &lt; Min", IF(D103 = 1, "x &gt; Max", D103 * (C103 - B103) + B103) )</x:f>
@@ -6640,7 +6646,7 @@
     <x:row r="104" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="105" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A105" s="9" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6648,13 +6654,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B106" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C106" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D106" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E106" s="6" t="s">
         <x:v>12</x:v>
@@ -6666,7 +6672,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H106" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I106" s="6" t="s">
         <x:v>15</x:v>
@@ -6686,10 +6692,10 @@
         <x:v>0.95</x:v>
       </x:c>
       <x:c r="E107" s="3" t="n">
-        <x:v>0.8999999999999999</x:v>
+        <x:v>0.9</x:v>
       </x:c>
       <x:c r="F107" s="3" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I107" s="3">
         <x:f>IF( D107 = 0, "x &lt; Min", IF(D107 = 1, "x &gt; Max", D107 * (C107 - B107) + B107) )</x:f>
@@ -6698,7 +6704,7 @@
     <x:row r="108" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="109" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A109" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6706,13 +6712,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B110" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C110" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D110" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E110" s="6" t="s">
         <x:v>12</x:v>
@@ -6724,7 +6730,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H110" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I110" s="6" t="s">
         <x:v>15</x:v>
@@ -6747,7 +6753,7 @@
         <x:v>0.98</x:v>
       </x:c>
       <x:c r="F111" s="3" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I111" s="3">
         <x:f>IF( D111 = 0, "x &lt; Min", IF(D111 = 1, "x &gt; Max", D111 * (C111 - B111) + B111) )</x:f>
@@ -6756,7 +6762,7 @@
     <x:row r="112" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="113" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A113" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6764,13 +6770,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B114" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C114" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D114" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E114" s="6" t="s">
         <x:v>12</x:v>
@@ -6782,7 +6788,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H114" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I114" s="6" t="s">
         <x:v>15</x:v>
@@ -6813,12 +6819,12 @@
     </x:row>
     <x:row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <x:c r="A117" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A118" s="9" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6826,13 +6832,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B119" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C119" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D119" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E119" s="6" t="s">
         <x:v>12</x:v>
@@ -6844,7 +6850,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H119" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I119" s="6" t="s">
         <x:v>15</x:v>
@@ -6879,7 +6885,7 @@
     </x:row>
     <x:row r="122" spans="1:15" s="0" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A122" s="9" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s"/>
       <x:c r="C122" s="0" t="s"/>
@@ -6901,13 +6907,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B123" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C123" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D123" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E123" s="6" t="s">
         <x:v>12</x:v>
@@ -6919,7 +6925,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H123" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I123" s="6" t="s">
         <x:v>15</x:v>
@@ -6952,7 +6958,7 @@
     <x:row r="125" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="126" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A126" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6960,13 +6966,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B127" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C127" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D127" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E127" s="6" t="s">
         <x:v>12</x:v>
@@ -6978,7 +6984,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H127" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I127" s="6" t="s">
         <x:v>15</x:v>
@@ -7010,7 +7016,7 @@
     <x:row r="129" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="130" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A130" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7018,13 +7024,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B131" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C131" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D131" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E131" s="6" t="s">
         <x:v>12</x:v>
@@ -7036,7 +7042,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H131" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I131" s="6" t="s">
         <x:v>15</x:v>
@@ -7059,7 +7065,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F132" s="3" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="I132" s="3">
         <x:f>IF( D132 = 0, "x &lt; Min", IF(D132 = 1, "x &gt; Max", D132 * (C132 - B132) + B132) )</x:f>
@@ -7068,7 +7074,7 @@
     <x:row r="133" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="134" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A134" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7076,13 +7082,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B135" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C135" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D135" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E135" s="6" t="s">
         <x:v>12</x:v>
@@ -7094,7 +7100,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H135" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I135" s="6" t="s">
         <x:v>15</x:v>
@@ -7126,7 +7132,7 @@
     <x:row r="137" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="138" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A138" s="9" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7134,13 +7140,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B139" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C139" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D139" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E139" s="6" t="s">
         <x:v>12</x:v>
@@ -7152,7 +7158,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H139" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I139" s="6" t="s">
         <x:v>15</x:v>
@@ -7184,7 +7190,7 @@
     <x:row r="141" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="142" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A142" s="9" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:15" s="0" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7192,13 +7198,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B143" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C143" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D143" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E143" s="6" t="s">
         <x:v>12</x:v>
@@ -7210,7 +7216,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H143" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I143" s="6" t="s">
         <x:v>15</x:v>
@@ -7233,7 +7239,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="F144" s="3" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I144" s="3">
         <x:f>IF( D144 = 0, "x &lt; Min", IF(D144 = 1, "x &gt; Max", D144 * (C144 - B144) + B144) )</x:f>
@@ -7242,7 +7248,7 @@
     <x:row r="145" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="146" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A146" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7250,13 +7256,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B147" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C147" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D147" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E147" s="6" t="s">
         <x:v>12</x:v>
@@ -7268,7 +7274,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H147" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I147" s="6" t="s">
         <x:v>15</x:v>
@@ -7291,7 +7297,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="F148" s="3" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I148" s="3">
         <x:f>IF( D148 = 0, "x &lt; Min", IF(D148 = 1, "x &gt; Max", D148 * (C148 - B148) + B148) )</x:f>
@@ -7300,7 +7306,7 @@
     <x:row r="149" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="150" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A150" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7308,13 +7314,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B151" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C151" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D151" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E151" s="6" t="s">
         <x:v>12</x:v>
@@ -7326,7 +7332,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H151" s="17">
-        <x:v>44078.68472222222</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I151" s="6" t="s">
         <x:v>15</x:v>
@@ -7397,7 +7403,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A1" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
         <x:v>1</x:v>
@@ -7410,7 +7416,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s"/>
       <x:c r="D2" s="4" t="s"/>
@@ -7443,7 +7449,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="J6" s="11" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7466,13 +7472,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="6" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H7" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="J7" s="9" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -7524,10 +7530,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="6" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H11" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -7578,10 +7584,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="6" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H15" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -7631,10 +7637,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="6" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H19" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -7709,7 +7715,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A1" s="4" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
         <x:v>1</x:v>
@@ -7720,7 +7726,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -7758,7 +7764,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
         <x:v>63</x:v>
@@ -7767,10 +7773,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="6" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H7" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -7784,10 +7790,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G8" s="3" t="str">
         <x:f>IF(F8 = E8, "Passed", "Failed")</x:f>
@@ -7804,10 +7810,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G9" s="3" t="str">
         <x:f>IF(F9 = E9, "Passed", "Failed")</x:f>
@@ -7832,7 +7838,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
         <x:v>63</x:v>
@@ -7841,10 +7847,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G12" s="6" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H12" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -7858,10 +7864,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E13" s="3" t="s">
         <x:v>148</x:v>
-      </x:c>
-      <x:c r="E13" s="3" t="s">
-        <x:v>146</x:v>
       </x:c>
       <x:c r="G13" s="3" t="str">
         <x:f>IF(F13 = E13, "Passed", "Failed")</x:f>
@@ -7878,10 +7884,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E14" s="3" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G14" s="3" t="str">
         <x:f>IF(F14 = E14, "Passed", "Failed")</x:f>
@@ -7941,12 +7947,12 @@
         <x:v>43859</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="B4" s="11" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C4" s="13" t="s"/>
       <x:c r="D4" s="13" t="s"/>
@@ -7955,7 +7961,7 @@
     </x:row>
     <x:row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="B5" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9" s="0" customFormat="1" x14ac:dyDescent="0.25">
@@ -7971,7 +7977,7 @@
     </x:row>
     <x:row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="B58" s="9" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8066,7 +8072,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -8118,7 +8124,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -8170,7 +8176,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -8222,7 +8228,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -8355,7 +8361,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -8410,7 +8416,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -8462,7 +8468,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -8514,7 +8520,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -8648,7 +8654,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -8721,7 +8727,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -8778,7 +8784,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -8835,7 +8841,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -8988,7 +8994,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -9043,7 +9049,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -9096,7 +9102,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -9148,7 +9154,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -9290,7 +9296,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -9345,7 +9351,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -9362,7 +9368,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E12" s="3" t="n">
-        <x:v>102.08333333333333</x:v>
+        <x:v>102.083333333333</x:v>
       </x:c>
       <x:c r="F12" s="3" t="s">
         <x:v>49</x:v>
@@ -9397,7 +9403,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -9420,7 +9426,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E16" s="3" t="n">
-        <x:v>0.3333333333333333</x:v>
+        <x:v>0.333333333333333</x:v>
       </x:c>
       <x:c r="F16" s="3" t="s">
         <x:v>50</x:v>
@@ -9451,11 +9457,11 @@
       <x:c r="F19" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G19" s="31" t="s">
-        <x:v>32</x:v>
+      <x:c r="G19" s="30" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -9472,7 +9478,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E20" s="3" t="n">
-        <x:v>833.3333333333333</x:v>
+        <x:v>833.333333333333</x:v>
       </x:c>
       <x:c r="F20" s="3" t="s">
         <x:v>51</x:v>
@@ -17771,7 +17777,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -17791,7 +17797,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E8" s="3" t="n">
-        <x:v>8.660254037844387</x:v>
+        <x:v>8.66025403784439</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
         <x:v>56</x:v>
@@ -17826,7 +17832,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -17843,7 +17849,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E12" s="3" t="n">
-        <x:v>10.103629710818451</x:v>
+        <x:v>10.1036297108185</x:v>
       </x:c>
       <x:c r="F12" s="3" t="s">
         <x:v>57</x:v>
@@ -17874,11 +17880,11 @@
       <x:c r="F15" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G15" s="31" t="s">
-        <x:v>32</x:v>
+      <x:c r="G15" s="30" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -17895,7 +17901,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E16" s="3" t="n">
-        <x:v>0.5773502691896257</x:v>
+        <x:v>0.577350269189626</x:v>
       </x:c>
       <x:c r="F16" s="3" t="s">
         <x:v>58</x:v>
@@ -17926,11 +17932,11 @@
       <x:c r="F19" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G19" s="31" t="s">
-        <x:v>32</x:v>
+      <x:c r="G19" s="30" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -17948,7 +17954,7 @@
       </x:c>
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="3" t="n">
-        <x:v>28.867513459481287</x:v>
+        <x:v>28.8675134594813</x:v>
       </x:c>
       <x:c r="F20" s="3" t="s">
         <x:v>59</x:v>
@@ -18061,7 +18067,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="J7" s="9" t="s">
         <x:v>64</x:v>
@@ -18110,7 +18116,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -18156,7 +18162,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -18202,7 +18208,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" s="0" customFormat="1" x14ac:dyDescent="0.25">
@@ -18334,11 +18340,11 @@
       <x:c r="F7" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G7" s="31" t="s">
-        <x:v>32</x:v>
+      <x:c r="G7" s="30" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -18361,7 +18367,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F8" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I8" s="14">
         <x:f>D8</x:f>
@@ -18391,11 +18397,11 @@
       <x:c r="F11" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G11" s="31" t="s">
-        <x:v>32</x:v>
+      <x:c r="G11" s="30" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -18448,11 +18454,11 @@
       <x:c r="F15" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G15" s="31" t="s">
-        <x:v>32</x:v>
+      <x:c r="G15" s="30" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -18475,7 +18481,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F16" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I16" s="3">
         <x:f>D16</x:f>
@@ -18524,7 +18530,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="17">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>
@@ -18547,7 +18553,7 @@
         <x:v>2147483647</x:v>
       </x:c>
       <x:c r="F20" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I20" s="3">
         <x:f>D20</x:f>
